--- a/底稿/Tableau绘图/1—3 充值金额+渠道+地域分布.xlsx
+++ b/底稿/Tableau绘图/1—3 充值金额+渠道+地域分布.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\2018\多益网络2018\多益20180630\底稿\20180717\Tableau绘图\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\随便放哪里\test2\底稿\Tableau绘图\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="92">
   <si>
     <t>游戏名称</t>
   </si>
@@ -340,29 +340,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>神武2端游</t>
-  </si>
-  <si>
-    <t>神武2手游安卓</t>
-  </si>
-  <si>
-    <t>神武3端游</t>
-  </si>
-  <si>
-    <t>神武3手游安卓</t>
-  </si>
-  <si>
-    <t>神武端游</t>
-  </si>
-  <si>
-    <t>神武手游安卓</t>
-  </si>
-  <si>
     <t>2018上</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>神武3端游</t>
+    <t>神武系列端游</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神武系列手游安卓</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +360,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -428,6 +414,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -475,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +537,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2553,15 +2553,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D133" sqref="D2:E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="22"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
@@ -3150,16 +3150,16 @@
         <v>13</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="20">
-        <v>638</v>
+        <v>1269</v>
       </c>
       <c r="E35" s="20">
-        <v>1971803.7608</v>
+        <v>1692702</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3167,16 +3167,16 @@
         <v>13</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="20">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="E36" s="20">
-        <v>39527.442000000003</v>
+        <v>25472.2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3184,7 +3184,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>16</v>
@@ -3201,16 +3201,16 @@
         <v>13</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="20">
-        <v>100846</v>
+        <v>31071</v>
       </c>
       <c r="E38" s="20">
-        <v>91429006.628800005</v>
+        <v>19339066.620000001</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3218,16 +3218,16 @@
         <v>13</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="20">
-        <v>17739</v>
+        <v>3321</v>
       </c>
       <c r="E39" s="20">
-        <v>18784921.363600001</v>
+        <v>2381014.2000000002</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3235,16 +3235,16 @@
         <v>13</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="20">
-        <v>204275</v>
+        <v>59438</v>
       </c>
       <c r="E40" s="20">
-        <v>138013347.3242</v>
+        <v>34454449.32</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3252,13 +3252,13 @@
         <v>13</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="20">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E41" s="20">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>21</v>
@@ -3286,7 +3286,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>22</v>
@@ -3303,16 +3303,16 @@
         <v>13</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="20">
-        <v>10</v>
+        <v>863</v>
       </c>
       <c r="E44" s="20">
-        <v>5139.4076999999997</v>
+        <v>1596509.6495000001</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3320,7 +3320,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>24</v>
@@ -3334,1361 +3334,1361 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="21">
         <v>2015</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="17">
-        <v>167080</v>
-      </c>
-      <c r="E46" s="17">
-        <v>89079865</v>
+      <c r="C46" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="24">
+        <v>1305</v>
+      </c>
+      <c r="E46" s="24">
+        <v>141385.5</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" s="21">
         <v>2015</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="17">
-        <v>30867</v>
-      </c>
-      <c r="E47" s="17">
-        <v>7299798.5510999998</v>
+      <c r="C47" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="24">
+        <v>5072</v>
+      </c>
+      <c r="E47" s="24">
+        <v>13799772.1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B48" s="21">
         <v>2015</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="17">
-        <v>0</v>
-      </c>
-      <c r="E48" s="17">
-        <v>0</v>
+      <c r="C48" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="24">
+        <v>49808</v>
+      </c>
+      <c r="E48" s="24">
+        <v>4069845</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" s="21">
         <v>2015</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="17">
-        <v>331286</v>
-      </c>
-      <c r="E49" s="17">
-        <v>173187064.00319999</v>
+      <c r="C49" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="24">
+        <v>893</v>
+      </c>
+      <c r="E49" s="24">
+        <v>47282.25</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="21">
         <v>2015</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="17">
-        <v>139254</v>
-      </c>
-      <c r="E50" s="17">
-        <v>83152375</v>
+      <c r="C50" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="24">
+        <v>349453</v>
+      </c>
+      <c r="E50" s="24">
+        <v>231754110</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="21">
         <v>2015</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="17">
-        <v>0</v>
-      </c>
-      <c r="E51" s="17">
+      <c r="C51" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="24">
+        <v>0</v>
+      </c>
+      <c r="E51" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="21">
         <v>2015</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="17">
-        <v>0</v>
-      </c>
-      <c r="E52" s="17">
-        <v>0</v>
+      <c r="C52" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="24">
+        <v>148</v>
+      </c>
+      <c r="E52" s="24">
+        <v>145537.48259999999</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="21">
         <v>2015</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="17">
-        <v>432</v>
-      </c>
-      <c r="E53" s="17">
-        <v>26041.5</v>
+      <c r="C53" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="24">
+        <v>76070</v>
+      </c>
+      <c r="E53" s="24">
+        <v>21107146.52</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B54" s="21">
         <v>2015</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="17">
-        <v>893</v>
-      </c>
-      <c r="E54" s="17">
-        <v>47282.25</v>
+      <c r="C54" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="24">
+        <v>0</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="21">
         <v>2015</v>
       </c>
-      <c r="C55" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="17">
-        <v>2760</v>
-      </c>
-      <c r="E55" s="17">
-        <v>8175207.1509999996</v>
+      <c r="C55" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="24">
+        <v>290941</v>
+      </c>
+      <c r="E55" s="24">
+        <v>207634335</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" s="21">
         <v>2015</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="17">
-        <v>147</v>
-      </c>
-      <c r="E56" s="17">
-        <v>145537.4516</v>
+      <c r="C56" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="24">
+        <v>562832</v>
+      </c>
+      <c r="E56" s="24">
+        <v>333916779.5</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" s="21">
         <v>2016</v>
       </c>
-      <c r="C57" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="17">
-        <v>124000</v>
-      </c>
-      <c r="E57" s="17">
-        <v>86137502.900000006</v>
+      <c r="C57" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="24">
+        <v>0</v>
+      </c>
+      <c r="E57" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" s="21">
         <v>2016</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="17">
-        <v>20019</v>
-      </c>
-      <c r="E58" s="17">
-        <v>5374344.5811000001</v>
+      <c r="C58" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="24">
+        <v>11200</v>
+      </c>
+      <c r="E58" s="24">
+        <v>26885987.66</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" s="21">
         <v>2016</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="17">
-        <v>0</v>
-      </c>
-      <c r="E59" s="17">
+      <c r="C59" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="24">
+        <v>0</v>
+      </c>
+      <c r="E59" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B60" s="21">
         <v>2016</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="17">
-        <v>503972</v>
-      </c>
-      <c r="E60" s="17">
-        <v>443312131.73720002</v>
+      <c r="C60" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="24">
+        <v>7360</v>
+      </c>
+      <c r="E60" s="24">
+        <v>1393243.8</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B61" s="21">
         <v>2016</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="17">
-        <v>136235</v>
-      </c>
-      <c r="E61" s="17">
-        <v>113560425</v>
+      <c r="C61" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="24">
+        <v>124000</v>
+      </c>
+      <c r="E61" s="24">
+        <v>86137502.900000006</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" s="21">
         <v>2016</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="17">
-        <v>193844</v>
-      </c>
-      <c r="E62" s="17">
-        <v>89789011.536200002</v>
+      <c r="C62" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="24">
+        <v>0</v>
+      </c>
+      <c r="E62" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B63" s="21">
         <v>2016</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="17">
-        <v>0</v>
-      </c>
-      <c r="E63" s="17">
-        <v>0</v>
+      <c r="C63" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="24">
+        <v>774</v>
+      </c>
+      <c r="E63" s="24">
+        <v>856307.75630000001</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" s="21">
         <v>2016</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="17">
-        <v>0</v>
-      </c>
-      <c r="E64" s="17">
-        <v>0</v>
+      <c r="C64" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="24">
+        <v>20019</v>
+      </c>
+      <c r="E64" s="24">
+        <v>5374344.5810000002</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="21">
         <v>2016</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="17">
-        <v>7360</v>
-      </c>
-      <c r="E65" s="17">
-        <v>1393243.8</v>
+      <c r="C65" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="24">
+        <v>193844</v>
+      </c>
+      <c r="E65" s="24">
+        <v>89789011.540000007</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" s="21">
         <v>2016</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="17">
-        <v>11200</v>
-      </c>
-      <c r="E66" s="17">
-        <v>26885987.659699999</v>
+      <c r="C66" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="24">
+        <v>136235</v>
+      </c>
+      <c r="E66" s="24">
+        <v>113560425</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" s="21">
         <v>2016</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="17">
-        <v>774</v>
-      </c>
-      <c r="E67" s="17">
-        <v>856307.75630000001</v>
+      <c r="C67" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="24">
+        <v>503972</v>
+      </c>
+      <c r="E67" s="24">
+        <v>443312131.69999999</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" s="21">
         <v>2017</v>
       </c>
-      <c r="C68" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="17">
-        <v>24413</v>
-      </c>
-      <c r="E68" s="17">
-        <v>24772440</v>
+      <c r="C68" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="24">
+        <v>0</v>
+      </c>
+      <c r="E68" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="21">
         <v>2017</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="17">
-        <v>1927</v>
-      </c>
-      <c r="E69" s="17">
-        <v>571234.17779999995</v>
+      <c r="C69" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="24">
+        <v>21016</v>
+      </c>
+      <c r="E69" s="24">
+        <v>66926589.789999999</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" s="21">
         <v>2017</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="17">
-        <v>0</v>
-      </c>
-      <c r="E70" s="17">
+      <c r="C70" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="24">
+        <v>0</v>
+      </c>
+      <c r="E70" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" s="21">
         <v>2017</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="17">
-        <v>239578</v>
-      </c>
-      <c r="E71" s="17">
-        <v>231616717.6992</v>
+      <c r="C71" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="24">
+        <v>7226</v>
+      </c>
+      <c r="E71" s="24">
+        <v>1992335.7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="21">
         <v>2017</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="17">
-        <v>26767</v>
-      </c>
-      <c r="E72" s="17">
-        <v>30590400</v>
+      <c r="C72" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="24">
+        <v>27400</v>
+      </c>
+      <c r="E72" s="24">
+        <v>29296640</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" s="21">
         <v>2017</v>
       </c>
-      <c r="C73" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="17">
-        <v>387598</v>
-      </c>
-      <c r="E73" s="17">
-        <v>355532755.31239998</v>
+      <c r="C73" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="24">
+        <v>0</v>
+      </c>
+      <c r="E73" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" s="21">
         <v>2017</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="17">
-        <v>0</v>
-      </c>
-      <c r="E74" s="17">
-        <v>0</v>
+      <c r="C74" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="24">
+        <v>1519</v>
+      </c>
+      <c r="E74" s="24">
+        <v>2060126.527</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" s="21">
         <v>2017</v>
       </c>
-      <c r="C75" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="17">
-        <v>0</v>
-      </c>
-      <c r="E75" s="17">
-        <v>0</v>
+      <c r="C75" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="24">
+        <v>2049</v>
+      </c>
+      <c r="E75" s="24">
+        <v>609161.25600000005</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" s="21">
         <v>2017</v>
       </c>
-      <c r="C76" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="17">
-        <v>6383</v>
-      </c>
-      <c r="E76" s="17">
-        <v>1721730</v>
+      <c r="C76" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="24">
+        <v>431248</v>
+      </c>
+      <c r="E76" s="24">
+        <v>420776583.10000002</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" s="21">
         <v>2017</v>
       </c>
-      <c r="C77" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="17">
-        <v>18679</v>
-      </c>
-      <c r="E77" s="17">
-        <v>58438576.935500003</v>
+      <c r="C77" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="24">
+        <v>29347</v>
+      </c>
+      <c r="E77" s="24">
+        <v>35038730</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" s="21">
         <v>2017</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="17">
-        <v>1312</v>
-      </c>
-      <c r="E78" s="17">
-        <v>1749499.483</v>
+      <c r="C78" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="24">
+        <v>268686</v>
+      </c>
+      <c r="E78" s="24">
+        <v>271990920.39999998</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="20">
-        <v>9488</v>
-      </c>
-      <c r="E79" s="20">
-        <v>12927430</v>
+        <v>89</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="24">
+        <v>0</v>
+      </c>
+      <c r="E79" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="20">
-        <v>388</v>
-      </c>
-      <c r="E80" s="20">
-        <v>111065.22900000001</v>
+        <v>89</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="24">
+        <v>13524</v>
+      </c>
+      <c r="E80" s="24">
+        <v>36426422.950000003</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="20">
-        <v>0</v>
-      </c>
-      <c r="E81" s="20">
+        <v>89</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="24">
+        <v>0</v>
+      </c>
+      <c r="E81" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="20">
-        <v>137800</v>
-      </c>
-      <c r="E82" s="20">
-        <v>134609325.11849999</v>
+        <v>89</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="24">
+        <v>6545</v>
+      </c>
+      <c r="E82" s="24">
+        <v>1394223.75</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="20">
-        <v>19818</v>
-      </c>
-      <c r="E83" s="20">
-        <v>18648025</v>
+        <v>89</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="24">
+        <v>9488</v>
+      </c>
+      <c r="E83" s="24">
+        <v>12927430</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="20">
-        <v>258312</v>
-      </c>
-      <c r="E84" s="20">
-        <v>249090613.21169999</v>
+        <v>89</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="24">
+        <v>0</v>
+      </c>
+      <c r="E84" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="20">
-        <v>0</v>
-      </c>
-      <c r="E85" s="20">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="24">
+        <v>1376</v>
+      </c>
+      <c r="E85" s="24">
+        <v>1881694.3870000001</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="20">
-        <v>0</v>
-      </c>
-      <c r="E86" s="20">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="24">
+        <v>388</v>
+      </c>
+      <c r="E86" s="24">
+        <v>111065.22900000001</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="20">
-        <v>6545</v>
-      </c>
-      <c r="E87" s="20">
-        <v>1394223.75</v>
+        <v>89</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="24">
+        <v>258312</v>
+      </c>
+      <c r="E87" s="24">
+        <v>249090613.19999999</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="20">
-        <v>13524</v>
-      </c>
-      <c r="E88" s="20">
-        <v>36426422.945299998</v>
+        <v>89</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="24">
+        <v>19818</v>
+      </c>
+      <c r="E88" s="24">
+        <v>18648025</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="20">
-        <v>1376</v>
-      </c>
-      <c r="E89" s="20">
-        <v>1881694.3870999999</v>
+        <v>89</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="24">
+        <v>137800</v>
+      </c>
+      <c r="E89" s="24">
+        <v>134609325.09999999</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="21">
         <v>2015</v>
       </c>
-      <c r="C90" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="17">
-        <v>125</v>
-      </c>
-      <c r="E90" s="17">
-        <v>377952.6691</v>
+      <c r="C90" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="24">
+        <v>0</v>
+      </c>
+      <c r="E90" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="21">
         <v>2015</v>
       </c>
-      <c r="C91" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="17">
-        <v>8791</v>
-      </c>
-      <c r="E91" s="17">
-        <v>1959707.9484000001</v>
+      <c r="C91" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="24">
+        <v>0</v>
+      </c>
+      <c r="E91" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="21">
         <v>2015</v>
       </c>
-      <c r="C92" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="17">
-        <v>0</v>
-      </c>
-      <c r="E92" s="17">
+      <c r="C92" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="24">
+        <v>0</v>
+      </c>
+      <c r="E92" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="21">
         <v>2015</v>
       </c>
-      <c r="C93" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="17">
-        <v>86188</v>
-      </c>
-      <c r="E93" s="17">
-        <v>53348672.279299997</v>
+      <c r="C93" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="24">
+        <v>0</v>
+      </c>
+      <c r="E93" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" s="21">
         <v>2015</v>
       </c>
-      <c r="C94" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="17">
-        <v>24989</v>
-      </c>
-      <c r="E94" s="17">
-        <v>21072044.539999999</v>
+      <c r="C94" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="24">
+        <v>201</v>
+      </c>
+      <c r="E94" s="24">
+        <v>1291949.3529999999</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" s="21">
         <v>2015</v>
       </c>
-      <c r="C95" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="17">
-        <v>0</v>
-      </c>
-      <c r="E95" s="17">
+      <c r="C95" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="24">
+        <v>297</v>
+      </c>
+      <c r="E95" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" s="21">
         <v>2015</v>
       </c>
-      <c r="C96" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="17">
-        <v>75</v>
-      </c>
-      <c r="E96" s="17">
+      <c r="C96" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="24">
+        <v>0</v>
+      </c>
+      <c r="E96" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B97" s="21">
         <v>2015</v>
       </c>
-      <c r="C97" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="17">
-        <v>0</v>
-      </c>
-      <c r="E97" s="17">
-        <v>0</v>
+      <c r="C97" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="24">
+        <v>30396</v>
+      </c>
+      <c r="E97" s="24">
+        <v>7883675.1469999999</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" s="21">
         <v>2015</v>
       </c>
-      <c r="C98" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="17">
-        <v>0</v>
-      </c>
-      <c r="E98" s="17">
+      <c r="C98" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="24">
+        <v>0</v>
+      </c>
+      <c r="E98" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="21">
         <v>2015</v>
       </c>
-      <c r="C99" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" s="17">
-        <v>0</v>
-      </c>
-      <c r="E99" s="17">
-        <v>0</v>
+      <c r="C99" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="24">
+        <v>64693</v>
+      </c>
+      <c r="E99" s="24">
+        <v>65055307.280000001</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B100" s="21">
         <v>2015</v>
       </c>
-      <c r="C100" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="17">
-        <v>0</v>
-      </c>
-      <c r="E100" s="17">
-        <v>0</v>
+      <c r="C100" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="24">
+        <v>198613</v>
+      </c>
+      <c r="E100" s="24">
+        <v>137430630.59999999</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B101" s="21">
         <v>2016</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="17">
-        <v>2904</v>
-      </c>
-      <c r="E101" s="17">
-        <v>1948809.2080000001</v>
+      <c r="C101" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="24">
+        <v>0</v>
+      </c>
+      <c r="E101" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" s="21">
         <v>2016</v>
       </c>
-      <c r="C102" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="17">
-        <v>8367</v>
-      </c>
-      <c r="E102" s="17">
-        <v>1994394.9131</v>
+      <c r="C102" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="24">
+        <v>0</v>
+      </c>
+      <c r="E102" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B103" s="21">
         <v>2016</v>
       </c>
-      <c r="C103" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="17">
-        <v>0</v>
-      </c>
-      <c r="E103" s="17">
+      <c r="C103" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="24">
+        <v>0</v>
+      </c>
+      <c r="E103" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" s="21">
         <v>2016</v>
       </c>
-      <c r="C104" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="17">
-        <v>213705</v>
-      </c>
-      <c r="E104" s="17">
-        <v>163257353.08950001</v>
+      <c r="C104" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="24">
+        <v>0</v>
+      </c>
+      <c r="E104" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B105" s="21">
         <v>2016</v>
       </c>
-      <c r="C105" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="17">
-        <v>35864</v>
-      </c>
-      <c r="E105" s="17">
-        <v>38901145.873800002</v>
+      <c r="C105" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="24">
+        <v>2904</v>
+      </c>
+      <c r="E105" s="24">
+        <v>1948809.2080000001</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B106" s="21">
         <v>2016</v>
       </c>
-      <c r="C106" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="17">
-        <v>86963</v>
-      </c>
-      <c r="E106" s="17">
-        <v>29990611.077500001</v>
+      <c r="C106" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="24">
+        <v>110</v>
+      </c>
+      <c r="E106" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B107" s="21">
         <v>2016</v>
       </c>
-      <c r="C107" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" s="17">
-        <v>110</v>
-      </c>
-      <c r="E107" s="17">
+      <c r="C107" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="24">
+        <v>0</v>
+      </c>
+      <c r="E107" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B108" s="21">
         <v>2016</v>
       </c>
-      <c r="C108" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="17">
-        <v>0</v>
-      </c>
-      <c r="E108" s="17">
-        <v>0</v>
+      <c r="C108" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="24">
+        <v>8367</v>
+      </c>
+      <c r="E108" s="24">
+        <v>1994394.9129999999</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B109" s="21">
         <v>2016</v>
       </c>
-      <c r="C109" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D109" s="17">
-        <v>0</v>
-      </c>
-      <c r="E109" s="17">
-        <v>0</v>
+      <c r="C109" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="24">
+        <v>86963</v>
+      </c>
+      <c r="E109" s="24">
+        <v>29990611.079999998</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B110" s="21">
         <v>2016</v>
       </c>
-      <c r="C110" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110" s="17">
-        <v>0</v>
-      </c>
-      <c r="E110" s="17">
-        <v>0</v>
+      <c r="C110" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="24">
+        <v>35864</v>
+      </c>
+      <c r="E110" s="24">
+        <v>38901145.869999997</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B111" s="21">
         <v>2016</v>
       </c>
-      <c r="C111" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111" s="17">
-        <v>0</v>
-      </c>
-      <c r="E111" s="17">
-        <v>0</v>
+      <c r="C111" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="24">
+        <v>213705</v>
+      </c>
+      <c r="E111" s="24">
+        <v>163257353.09999999</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B112" s="21">
         <v>2017</v>
       </c>
-      <c r="C112" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="17">
-        <v>831</v>
-      </c>
-      <c r="E112" s="17">
-        <v>2054443.6971</v>
+      <c r="C112" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="24">
+        <v>0</v>
+      </c>
+      <c r="E112" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B113" s="21">
         <v>2017</v>
       </c>
-      <c r="C113" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="17">
-        <v>940</v>
-      </c>
-      <c r="E113" s="17">
-        <v>215223.26800000001</v>
+      <c r="C113" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="24">
+        <v>0</v>
+      </c>
+      <c r="E113" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B114" s="21">
         <v>2017</v>
       </c>
-      <c r="C114" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" s="17">
-        <v>0</v>
-      </c>
-      <c r="E114" s="17">
+      <c r="C114" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="24">
+        <v>0</v>
+      </c>
+      <c r="E114" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B115" s="21">
         <v>2017</v>
       </c>
-      <c r="C115" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="17">
-        <v>122964</v>
-      </c>
-      <c r="E115" s="17">
-        <v>131270657.11399999</v>
+      <c r="C115" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="24">
+        <v>0</v>
+      </c>
+      <c r="E115" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B116" s="21">
         <v>2017</v>
       </c>
-      <c r="C116" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D116" s="17">
-        <v>12321</v>
-      </c>
-      <c r="E116" s="17">
-        <v>24053432.162</v>
+      <c r="C116" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="24">
+        <v>1008</v>
+      </c>
+      <c r="E116" s="24">
+        <v>2390223.9389999998</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B117" s="21">
         <v>2017</v>
       </c>
-      <c r="C117" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="17">
-        <v>229176</v>
-      </c>
-      <c r="E117" s="17">
-        <v>151306983.55520001</v>
+      <c r="C117" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="24">
+        <v>106</v>
+      </c>
+      <c r="E117" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B118" s="21">
         <v>2017</v>
       </c>
-      <c r="C118" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" s="17">
-        <v>91</v>
-      </c>
-      <c r="E118" s="17">
+      <c r="C118" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="24">
+        <v>0</v>
+      </c>
+      <c r="E118" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B119" s="21">
         <v>2017</v>
       </c>
-      <c r="C119" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="17">
-        <v>0</v>
-      </c>
-      <c r="E119" s="17">
-        <v>0</v>
+      <c r="C119" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="24">
+        <v>1013</v>
+      </c>
+      <c r="E119" s="24">
+        <v>228318.2512</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B120" s="21">
         <v>2017</v>
       </c>
-      <c r="C120" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D120" s="17">
-        <v>0</v>
-      </c>
-      <c r="E120" s="17">
-        <v>0</v>
+      <c r="C120" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="24">
+        <v>292593</v>
+      </c>
+      <c r="E120" s="24">
+        <v>186481194.30000001</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B121" s="21">
         <v>2017</v>
       </c>
-      <c r="C121" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="17">
-        <v>0</v>
-      </c>
-      <c r="E121" s="17">
-        <v>0</v>
+      <c r="C121" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="24">
+        <v>17378</v>
+      </c>
+      <c r="E121" s="24">
+        <v>29022548.489999998</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B122" s="21">
         <v>2017</v>
       </c>
-      <c r="C122" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" s="17">
-        <v>0</v>
-      </c>
-      <c r="E122" s="17">
-        <v>0</v>
+      <c r="C122" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="24">
+        <v>158106</v>
+      </c>
+      <c r="E122" s="24">
+        <v>157546377</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B123" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" s="17">
-        <v>5805</v>
-      </c>
-      <c r="E123" s="17">
-        <v>4524200</v>
+      <c r="B123" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="24">
+        <v>0</v>
+      </c>
+      <c r="E123" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B124" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="17">
-        <v>192</v>
-      </c>
-      <c r="E124" s="17">
-        <v>37927.078200000004</v>
+      <c r="B124" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="24">
+        <v>10</v>
+      </c>
+      <c r="E124" s="24">
+        <v>5139.4076999999997</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B125" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="17">
-        <v>0</v>
-      </c>
-      <c r="E125" s="17">
+      <c r="B125" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="24">
+        <v>0</v>
+      </c>
+      <c r="E125" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4696,67 +4696,67 @@
       <c r="A126" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B126" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="17">
-        <v>73762</v>
-      </c>
-      <c r="E126" s="17">
-        <v>40374202.660400003</v>
+      <c r="B126" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="24">
+        <v>0</v>
+      </c>
+      <c r="E126" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B127" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" s="17">
-        <v>5647</v>
-      </c>
-      <c r="E127" s="17">
-        <v>4448330</v>
+      <c r="B127" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="24">
+        <v>638</v>
+      </c>
+      <c r="E127" s="24">
+        <v>1971803.7609999999</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B128" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="17">
-        <v>129911</v>
-      </c>
-      <c r="E128" s="17">
-        <v>65243827.788900003</v>
+      <c r="B128" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="24">
+        <v>76</v>
+      </c>
+      <c r="E128" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B129" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="17">
-        <v>0</v>
-      </c>
-      <c r="E129" s="17">
+      <c r="B129" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="24">
+        <v>0</v>
+      </c>
+      <c r="E129" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4764,816 +4764,68 @@
       <c r="A130" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B130" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="17">
-        <v>0</v>
-      </c>
-      <c r="E130" s="17">
-        <v>0</v>
+      <c r="B130" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="24">
+        <v>210</v>
+      </c>
+      <c r="E130" s="24">
+        <v>39527.442000000003</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B131" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D131" s="17">
-        <v>2712</v>
-      </c>
-      <c r="E131" s="17">
-        <v>270605.7</v>
+      <c r="B131" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="24">
+        <v>204275</v>
+      </c>
+      <c r="E131" s="24">
+        <v>138013347.30000001</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B132" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D132" s="17">
-        <v>4844</v>
-      </c>
-      <c r="E132" s="17">
-        <v>8488012.8594000004</v>
+      <c r="B132" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="24">
+        <v>17739</v>
+      </c>
+      <c r="E132" s="24">
+        <v>18784921.359999999</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B133" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D133" s="17">
-        <v>224</v>
-      </c>
-      <c r="E133" s="17">
-        <v>310627.04440000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B134" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="17">
-        <v>259</v>
-      </c>
-      <c r="E134" s="17">
-        <v>335780.24160000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B135" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="17">
-        <v>101</v>
-      </c>
-      <c r="E135" s="17">
-        <v>13094.983200000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B136" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" s="17">
-        <v>0</v>
-      </c>
-      <c r="E136" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B137" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C137" s="17" t="s">
+      <c r="B133" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C133" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D137" s="17">
-        <v>55201</v>
-      </c>
-      <c r="E137" s="17">
-        <v>26275719.9331</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B138" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="17">
-        <v>6978</v>
-      </c>
-      <c r="E138" s="17">
-        <v>4969116.3233000003</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B139" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="17">
-        <v>109942</v>
-      </c>
-      <c r="E139" s="17">
-        <v>35174210.745999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B140" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="17">
-        <v>34</v>
-      </c>
-      <c r="E140" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B141" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D141" s="17">
-        <v>0</v>
-      </c>
-      <c r="E141" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B142" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D142" s="17">
-        <v>0</v>
-      </c>
-      <c r="E142" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B143" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D143" s="17">
-        <v>0</v>
-      </c>
-      <c r="E143" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B144" s="21">
-        <v>2017</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D144" s="17">
-        <v>0</v>
-      </c>
-      <c r="E144" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" s="20">
-        <v>638</v>
-      </c>
-      <c r="E145" s="20">
-        <v>1971803.7608</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" s="20">
-        <v>210</v>
-      </c>
-      <c r="E146" s="20">
-        <v>39527.442000000003</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147" s="20">
-        <v>0</v>
-      </c>
-      <c r="E147" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B148" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D148" s="20">
+      <c r="D133" s="24">
         <v>100846</v>
       </c>
-      <c r="E148" s="20">
-        <v>91429006.628800005</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B149" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149" s="20">
-        <v>17739</v>
-      </c>
-      <c r="E149" s="20">
-        <v>18784921.363600001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B150" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="20">
-        <v>204275</v>
-      </c>
-      <c r="E150" s="20">
-        <v>138013347.3242</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B151" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" s="20">
-        <v>76</v>
-      </c>
-      <c r="E151" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B152" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="20">
-        <v>0</v>
-      </c>
-      <c r="E152" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B153" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="20">
-        <v>0</v>
-      </c>
-      <c r="E153" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B154" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D154" s="20">
-        <v>10</v>
-      </c>
-      <c r="E154" s="20">
-        <v>5139.4076999999997</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B155" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D155" s="20">
-        <v>0</v>
-      </c>
-      <c r="E155" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B156" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="17">
-        <v>244058</v>
-      </c>
-      <c r="E156" s="17">
-        <v>142674245</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B157" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="17">
-        <v>52759</v>
-      </c>
-      <c r="E157" s="17">
-        <v>13807347.968699999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B158" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D158" s="17">
-        <v>1305</v>
-      </c>
-      <c r="E158" s="17">
-        <v>141385.5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B159" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="17">
-        <v>346202</v>
-      </c>
-      <c r="E159" s="17">
-        <v>160729715.51120001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B160" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D160" s="17">
-        <v>201911</v>
-      </c>
-      <c r="E160" s="17">
-        <v>124481960</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B161" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="17">
-        <v>0</v>
-      </c>
-      <c r="E161" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B162" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D162" s="17">
-        <v>0</v>
-      </c>
-      <c r="E162" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B163" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D163" s="17">
-        <v>49438</v>
-      </c>
-      <c r="E163" s="17">
-        <v>4043803.5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B164" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D164" s="17">
-        <v>0</v>
-      </c>
-      <c r="E164" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B165" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D165" s="17">
-        <v>2737</v>
-      </c>
-      <c r="E165" s="17">
-        <v>5624564.9469999997</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B166" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D166" s="17">
-        <v>1</v>
-      </c>
-      <c r="E166" s="17">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B167" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="17">
-        <v>86</v>
-      </c>
-      <c r="E167" s="17">
-        <v>913996.68400000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B168" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D168" s="17">
-        <v>24342</v>
-      </c>
-      <c r="E168" s="17">
-        <v>5923967.1980999997</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B169" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169" s="17">
-        <v>0</v>
-      </c>
-      <c r="E169" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B170" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" s="17">
-        <v>138455</v>
-      </c>
-      <c r="E170" s="17">
-        <v>84081958.285999998</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B171" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D171" s="17">
-        <v>48134</v>
-      </c>
-      <c r="E171" s="17">
-        <v>43983262.735200003</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B172" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="17">
-        <v>0</v>
-      </c>
-      <c r="E172" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B173" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D173" s="17">
-        <v>249</v>
-      </c>
-      <c r="E173" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B174" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D174" s="17">
-        <v>0</v>
-      </c>
-      <c r="E174" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B175" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D175" s="17">
-        <v>0</v>
-      </c>
-      <c r="E175" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B176" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D176" s="17">
-        <v>0</v>
-      </c>
-      <c r="E176" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B177" s="21">
-        <v>2015</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D177" s="17">
-        <v>0</v>
-      </c>
-      <c r="E177" s="17">
-        <v>0</v>
+      <c r="E133" s="24">
+        <v>91429006.629999995</v>
       </c>
     </row>
   </sheetData>
